--- a/outputs-HGR-r202/f__CAG-826.xlsx
+++ b/outputs-HGR-r202/f__CAG-826.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,140 +484,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16567.fa</t>
+          <t>even_MAG-GUT2366.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.508990657375285e-10</v>
+        <v>2.85442208612196e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>5.413306682886547e-07</v>
+        <v>0.0169434991451376</v>
       </c>
       <c r="D2" t="n">
-        <v>7.708214195974671e-05</v>
+        <v>0.9829302304481536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001259229976727029</v>
+        <v>0.000126201234466982</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9986631458997459</v>
+        <v>4.062802088020899e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9986631458997459</v>
+        <v>0.9829302304481536</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
+          <t>g__UBA4855</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT2366.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.85442208612196e-08</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0169434991451376</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9829302304481536</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.000126201234466982</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.062802088020899e-08</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9829302304481536</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>g__UBA4855</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>g__UBA4855</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT46037.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.94020900926313e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.050622368871636e-07</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.709240946679316e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001111838947307846</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9988209631869677</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9988209631869677</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>g__UBA733</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>g__UBA733</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT65671.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.324200512894915e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.377966846978784e-06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.128840364109265e-09</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.999903378308029</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.42415962605421e-05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.999903378308029</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__CAG-826.xlsx
+++ b/outputs-HGR-r202/f__CAG-826.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>g__UBA4855</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g__UBA4855</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -621,6 +646,11 @@
         <v>0.999903378308029</v>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>g__UBA4951</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>g__UBA4951</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-826.xlsx
+++ b/outputs-HGR-r202/f__CAG-826.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,68 +484,173 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2366.fa</t>
+          <t>even_MAG-GUT16567.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.85442208612196e-08</v>
+        <v>6.508990657375285e-10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0169434991451376</v>
+        <v>5.413306682886547e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829302304481536</v>
+        <v>7.708214195974671e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000126201234466982</v>
+        <v>0.001259229976727029</v>
       </c>
       <c r="F2" t="n">
-        <v>4.062802088020899e-08</v>
+        <v>0.9986631458997459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9829302304481536</v>
+        <v>0.9986631458997459</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__UBA4855</t>
+          <t>g__UBA733</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>g__UBA4855</t>
+          <t>g__UBA733</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT2366.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.85442208612196e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0169434991451376</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9829302304481536</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000126201234466982</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.062802088020899e-08</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9829302304481536</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__UBA4855</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g__UBA4855</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46037.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.94020900926313e-10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.050622368871636e-07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.709240946679316e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001111838947307846</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9988209631869677</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9988209631869677</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT65341.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.927588715528927e-08</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.233742091676855e-08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.481096087663893e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.003261550596917898</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9966835368288974</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9966835368288974</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT65671.fa</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B6" t="n">
         <v>2.324200512894915e-14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C6" t="n">
         <v>2.377966846978784e-06</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D6" t="n">
         <v>2.128840364109265e-09</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E6" t="n">
         <v>0.999903378308029</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F6" t="n">
         <v>9.42415962605421e-05</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G6" t="n">
         <v>0.999903378308029</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>g__UBA4951</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>g__UBA4951</t>
         </is>
